--- a/excel/finished/焦化12/CK12-干熄焦-取样除尘报表（日）.xlsx
+++ b/excel/finished/焦化12/CK12-干熄焦-取样除尘报表（日）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7785"/>
+    <workbookView windowWidth="19935" windowHeight="7785"/>
   </bookViews>
   <sheets>
     <sheet name="取样除尘" sheetId="1" r:id="rId1"/>
@@ -17,12 +17,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="45">
   <si>
     <t>12&amp;45#焦炉取样除尘</t>
   </si>
   <si>
-    <t>SGSSG-BSMCSA35-G006-03A</t>
+    <t>SGSSG-BSMCSA0009-G006-07A</t>
   </si>
   <si>
     <t xml:space="preserve">     参数
@@ -106,7 +106,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">电机频率
+      <t xml:space="preserve">风机转速
 </t>
     </r>
     <r>
@@ -115,7 +115,7 @@
         <rFont val="Times New Roman"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> (Hz</t>
+      <t xml:space="preserve"> (r/min</t>
     </r>
     <r>
       <rPr>
@@ -400,10 +400,18 @@
     <r>
       <rPr>
         <sz val="14"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>水平振幅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
         <rFont val="Times New Roman"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">1A
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -438,10 +446,18 @@
     <r>
       <rPr>
         <sz val="14"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>轴承振幅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
         <rFont val="Times New Roman"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">1B
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -623,7 +639,13 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve"> 交班：           接班：</t>
+    <t xml:space="preserve"> 交班：                         接班：</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 交班：                              接班：</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 交班：                               接班：</t>
   </si>
   <si>
     <t>version</t>
@@ -634,11 +656,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="0.0"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.0"/>
     <numFmt numFmtId="177" formatCode="0.000"/>
   </numFmts>
   <fonts count="34">
@@ -724,9 +746,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -734,6 +762,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -747,30 +782,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -783,8 +812,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -800,48 +830,9 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="Arial"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -861,10 +852,41 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -874,7 +896,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -889,13 +911,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -907,49 +971,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -961,49 +995,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1021,7 +1013,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1033,48 +1091,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="40">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -1413,6 +1441,47 @@
     </border>
     <border>
       <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color theme="1"/>
       </left>
       <right style="medium">
@@ -1498,17 +1567,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1524,24 +1587,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1576,7 +1621,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1595,16 +1655,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1613,138 +1682,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="40" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="5" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="25" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1803,28 +1872,43 @@
     <xf numFmtId="20" fontId="9" fillId="0" borderId="13" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="14" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="10" fillId="0" borderId="14" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="9" fillId="0" borderId="15" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="10" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="10" fillId="0" borderId="10" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="10" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="10" fillId="0" borderId="10" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="9" fillId="0" borderId="16" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="17" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="10" fillId="0" borderId="17" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="19" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="10" fillId="0" borderId="19" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1833,7 +1917,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="10" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1852,13 +1939,13 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1866,6 +1953,18 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="26" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="27" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="28" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="2" fontId="10" fillId="0" borderId="14" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1884,46 +1983,52 @@
     <xf numFmtId="2" fontId="10" fillId="0" borderId="17" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="11" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="10" fillId="0" borderId="11" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="29" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="26" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="27" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="30" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="14" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="28" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="31" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="10" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="29" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="32" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="10" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="29" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="10" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="32" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="17" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="17" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="33" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="2" fontId="10" fillId="0" borderId="30" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="27" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="31" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="34" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="10" fillId="0" borderId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2204,14 +2309,20 @@
   <dimension ref="B1:S35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:E2"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="14.9" style="1" customWidth="1"/>
-    <col min="3" max="19" width="10.8" style="1" customWidth="1"/>
+    <col min="3" max="9" width="10.8" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.8" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="13" width="10.8" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.8" style="1" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="10.8" style="1" customWidth="1"/>
+    <col min="16" max="17" width="10.8" style="1" hidden="1" customWidth="1"/>
+    <col min="18" max="19" width="10.8" style="1" customWidth="1"/>
     <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -2248,19 +2359,19 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
       <c r="L2" s="8"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="40" t="s">
+      <c r="M2" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
     </row>
     <row r="3" ht="37.5" customHeight="1" spans="2:19">
       <c r="B3" s="9" t="s">
@@ -2278,10 +2389,10 @@
       <c r="H3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="48" t="s">
         <v>7</v>
       </c>
       <c r="K3" s="12" t="s">
@@ -2300,7 +2411,7 @@
       <c r="R3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="S3" s="49" t="s">
+      <c r="S3" s="59" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2322,7 +2433,7 @@
         <v>3</v>
       </c>
       <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
+      <c r="I4" s="49"/>
       <c r="J4" s="17"/>
       <c r="K4" s="16" t="s">
         <v>15</v>
@@ -2330,13 +2441,13 @@
       <c r="L4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="M4" s="16" t="s">
+      <c r="M4" s="50" t="s">
         <v>16</v>
       </c>
       <c r="N4" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="O4" s="16" t="s">
+      <c r="O4" s="50" t="s">
         <v>18</v>
       </c>
       <c r="P4" s="16" t="s">
@@ -2344,7 +2455,7 @@
       </c>
       <c r="Q4" s="17"/>
       <c r="R4" s="17"/>
-      <c r="S4" s="50"/>
+      <c r="S4" s="60"/>
     </row>
     <row r="5" ht="40.95" hidden="1" customHeight="1" spans="2:19">
       <c r="B5" s="18" t="s">
@@ -2418,15 +2529,15 @@
         <f>IF(_speed_day_hour!E2="","",_speed_day_hour!E2)</f>
         <v/>
       </c>
-      <c r="H6" s="20" t="str">
+      <c r="H6" s="21" t="str">
         <f>IF(_speed_day_hour!F2="","",_speed_day_hour!F2)</f>
         <v/>
       </c>
-      <c r="I6" s="20" t="str">
+      <c r="I6" s="21" t="str">
         <f>IF(_speed_day_hour!G2="","",_speed_day_hour!G2)</f>
         <v/>
       </c>
-      <c r="J6" s="41" t="str">
+      <c r="J6" s="51" t="str">
         <f>IF(_speed_day_hour!H2="","",_speed_day_hour!H2)</f>
         <v/>
       </c>
@@ -2438,2063 +2549,2063 @@
         <f>IF(_speed_day_hour!J2="","",_speed_day_hour!J2)</f>
         <v/>
       </c>
-      <c r="M6" s="41" t="str">
+      <c r="M6" s="51" t="str">
         <f>IF(_speed_day_hour!K2="","",_speed_day_hour!K2)</f>
         <v/>
       </c>
-      <c r="N6" s="41" t="str">
+      <c r="N6" s="51" t="str">
         <f>IF(_speed_day_hour!L2="","",_speed_day_hour!L2)</f>
         <v/>
       </c>
-      <c r="O6" s="41" t="str">
+      <c r="O6" s="51" t="str">
         <f>IF(_speed_day_hour!M2="","",_speed_day_hour!M2)</f>
         <v/>
       </c>
-      <c r="P6" s="41" t="str">
+      <c r="P6" s="51" t="str">
         <f>IF(_speed_day_hour!N2="","",_speed_day_hour!N2)</f>
         <v/>
       </c>
-      <c r="Q6" s="41" t="str">
+      <c r="Q6" s="20" t="str">
         <f>IF(_speed_day_hour!O2="","",_speed_day_hour!O2)</f>
         <v/>
       </c>
-      <c r="R6" s="51" t="str">
+      <c r="R6" s="61" t="str">
         <f>IF(_speed_day_hour!P2="","",_speed_day_hour!P2)</f>
         <v/>
       </c>
-      <c r="S6" s="52" t="str">
+      <c r="S6" s="62" t="str">
         <f>IF(_speed_day_hour!Q2="","",_speed_day_hour!Q2)</f>
         <v/>
       </c>
     </row>
     <row r="7" ht="21.45" customHeight="1" spans="2:19">
-      <c r="B7" s="21">
+      <c r="B7" s="22">
         <v>0.0416666666666667</v>
       </c>
-      <c r="C7" s="22" t="str">
+      <c r="C7" s="23" t="str">
         <f>IF(_speed_day_hour!A3="","",_speed_day_hour!A3)</f>
         <v/>
       </c>
-      <c r="D7" s="22" t="str">
+      <c r="D7" s="23" t="str">
         <f>IF(_speed_day_hour!B3="","",_speed_day_hour!B3)</f>
         <v/>
       </c>
-      <c r="E7" s="22" t="str">
+      <c r="E7" s="23" t="str">
         <f>IF(_speed_day_hour!C3="","",_speed_day_hour!C3)</f>
         <v/>
       </c>
-      <c r="F7" s="22" t="str">
+      <c r="F7" s="23" t="str">
         <f>IF(_speed_day_hour!D3="","",_speed_day_hour!D3)</f>
         <v/>
       </c>
-      <c r="G7" s="22" t="str">
+      <c r="G7" s="23" t="str">
         <f>IF(_speed_day_hour!E3="","",_speed_day_hour!E3)</f>
         <v/>
       </c>
-      <c r="H7" s="22" t="str">
+      <c r="H7" s="24" t="str">
         <f>IF(_speed_day_hour!F3="","",_speed_day_hour!F3)</f>
         <v/>
       </c>
-      <c r="I7" s="22" t="str">
+      <c r="I7" s="24" t="str">
         <f>IF(_speed_day_hour!G3="","",_speed_day_hour!G3)</f>
         <v/>
       </c>
-      <c r="J7" s="42" t="str">
+      <c r="J7" s="52" t="str">
         <f>IF(_speed_day_hour!H3="","",_speed_day_hour!H3)</f>
         <v/>
       </c>
-      <c r="K7" s="22" t="str">
+      <c r="K7" s="23" t="str">
         <f>IF(_speed_day_hour!I3="","",_speed_day_hour!I3)</f>
         <v/>
       </c>
-      <c r="L7" s="22" t="str">
+      <c r="L7" s="23" t="str">
         <f>IF(_speed_day_hour!J3="","",_speed_day_hour!J3)</f>
         <v/>
       </c>
-      <c r="M7" s="42" t="str">
+      <c r="M7" s="52" t="str">
         <f>IF(_speed_day_hour!K3="","",_speed_day_hour!K3)</f>
         <v/>
       </c>
-      <c r="N7" s="42" t="str">
+      <c r="N7" s="52" t="str">
         <f>IF(_speed_day_hour!L3="","",_speed_day_hour!L3)</f>
         <v/>
       </c>
-      <c r="O7" s="42" t="str">
+      <c r="O7" s="52" t="str">
         <f>IF(_speed_day_hour!M3="","",_speed_day_hour!M3)</f>
         <v/>
       </c>
-      <c r="P7" s="42" t="str">
+      <c r="P7" s="52" t="str">
         <f>IF(_speed_day_hour!N3="","",_speed_day_hour!N3)</f>
         <v/>
       </c>
-      <c r="Q7" s="42" t="str">
+      <c r="Q7" s="23" t="str">
         <f>IF(_speed_day_hour!O3="","",_speed_day_hour!O3)</f>
         <v/>
       </c>
-      <c r="R7" s="53" t="str">
+      <c r="R7" s="63" t="str">
         <f>IF(_speed_day_hour!P3="","",_speed_day_hour!P3)</f>
         <v/>
       </c>
-      <c r="S7" s="54" t="str">
+      <c r="S7" s="64" t="str">
         <f>IF(_speed_day_hour!Q3="","",_speed_day_hour!Q3)</f>
         <v/>
       </c>
     </row>
     <row r="8" ht="21.45" customHeight="1" spans="2:19">
-      <c r="B8" s="21">
+      <c r="B8" s="22">
         <v>0.0833333333333333</v>
       </c>
-      <c r="C8" s="22" t="str">
+      <c r="C8" s="23" t="str">
         <f>IF(_speed_day_hour!A4="","",_speed_day_hour!A4)</f>
         <v/>
       </c>
-      <c r="D8" s="22" t="str">
+      <c r="D8" s="23" t="str">
         <f>IF(_speed_day_hour!B4="","",_speed_day_hour!B4)</f>
         <v/>
       </c>
-      <c r="E8" s="22" t="str">
+      <c r="E8" s="23" t="str">
         <f>IF(_speed_day_hour!C4="","",_speed_day_hour!C4)</f>
         <v/>
       </c>
-      <c r="F8" s="22" t="str">
+      <c r="F8" s="23" t="str">
         <f>IF(_speed_day_hour!D4="","",_speed_day_hour!D4)</f>
         <v/>
       </c>
-      <c r="G8" s="22" t="str">
+      <c r="G8" s="23" t="str">
         <f>IF(_speed_day_hour!E4="","",_speed_day_hour!E4)</f>
         <v/>
       </c>
-      <c r="H8" s="22" t="str">
+      <c r="H8" s="24" t="str">
         <f>IF(_speed_day_hour!F4="","",_speed_day_hour!F4)</f>
         <v/>
       </c>
-      <c r="I8" s="22" t="str">
+      <c r="I8" s="24" t="str">
         <f>IF(_speed_day_hour!G4="","",_speed_day_hour!G4)</f>
         <v/>
       </c>
-      <c r="J8" s="42" t="str">
+      <c r="J8" s="52" t="str">
         <f>IF(_speed_day_hour!H4="","",_speed_day_hour!H4)</f>
         <v/>
       </c>
-      <c r="K8" s="22" t="str">
+      <c r="K8" s="23" t="str">
         <f>IF(_speed_day_hour!I4="","",_speed_day_hour!I4)</f>
         <v/>
       </c>
-      <c r="L8" s="22" t="str">
+      <c r="L8" s="23" t="str">
         <f>IF(_speed_day_hour!J4="","",_speed_day_hour!J4)</f>
         <v/>
       </c>
-      <c r="M8" s="42" t="str">
+      <c r="M8" s="52" t="str">
         <f>IF(_speed_day_hour!K4="","",_speed_day_hour!K4)</f>
         <v/>
       </c>
-      <c r="N8" s="42" t="str">
+      <c r="N8" s="52" t="str">
         <f>IF(_speed_day_hour!L4="","",_speed_day_hour!L4)</f>
         <v/>
       </c>
-      <c r="O8" s="42" t="str">
+      <c r="O8" s="52" t="str">
         <f>IF(_speed_day_hour!M4="","",_speed_day_hour!M4)</f>
         <v/>
       </c>
-      <c r="P8" s="42" t="str">
+      <c r="P8" s="52" t="str">
         <f>IF(_speed_day_hour!N4="","",_speed_day_hour!N4)</f>
         <v/>
       </c>
-      <c r="Q8" s="42" t="str">
+      <c r="Q8" s="23" t="str">
         <f>IF(_speed_day_hour!O4="","",_speed_day_hour!O4)</f>
         <v/>
       </c>
-      <c r="R8" s="55" t="str">
+      <c r="R8" s="65" t="str">
         <f>IF(_speed_day_hour!P4="","",_speed_day_hour!P4)</f>
         <v/>
       </c>
-      <c r="S8" s="54" t="str">
+      <c r="S8" s="64" t="str">
         <f>IF(_speed_day_hour!Q4="","",_speed_day_hour!Q4)</f>
         <v/>
       </c>
     </row>
     <row r="9" ht="21.45" customHeight="1" spans="2:19">
-      <c r="B9" s="21">
+      <c r="B9" s="22">
         <v>0.125</v>
       </c>
-      <c r="C9" s="22" t="str">
+      <c r="C9" s="23" t="str">
         <f>IF(_speed_day_hour!A5="","",_speed_day_hour!A5)</f>
         <v/>
       </c>
-      <c r="D9" s="22" t="str">
+      <c r="D9" s="23" t="str">
         <f>IF(_speed_day_hour!B5="","",_speed_day_hour!B5)</f>
         <v/>
       </c>
-      <c r="E9" s="22" t="str">
+      <c r="E9" s="23" t="str">
         <f>IF(_speed_day_hour!C5="","",_speed_day_hour!C5)</f>
         <v/>
       </c>
-      <c r="F9" s="22" t="str">
+      <c r="F9" s="23" t="str">
         <f>IF(_speed_day_hour!D5="","",_speed_day_hour!D5)</f>
         <v/>
       </c>
-      <c r="G9" s="22" t="str">
+      <c r="G9" s="23" t="str">
         <f>IF(_speed_day_hour!E5="","",_speed_day_hour!E5)</f>
         <v/>
       </c>
-      <c r="H9" s="22" t="str">
+      <c r="H9" s="24" t="str">
         <f>IF(_speed_day_hour!F5="","",_speed_day_hour!F5)</f>
         <v/>
       </c>
-      <c r="I9" s="22" t="str">
+      <c r="I9" s="24" t="str">
         <f>IF(_speed_day_hour!G5="","",_speed_day_hour!G5)</f>
         <v/>
       </c>
-      <c r="J9" s="42" t="str">
+      <c r="J9" s="52" t="str">
         <f>IF(_speed_day_hour!H5="","",_speed_day_hour!H5)</f>
         <v/>
       </c>
-      <c r="K9" s="22" t="str">
+      <c r="K9" s="23" t="str">
         <f>IF(_speed_day_hour!I5="","",_speed_day_hour!I5)</f>
         <v/>
       </c>
-      <c r="L9" s="22" t="str">
+      <c r="L9" s="23" t="str">
         <f>IF(_speed_day_hour!J5="","",_speed_day_hour!J5)</f>
         <v/>
       </c>
-      <c r="M9" s="42" t="str">
+      <c r="M9" s="52" t="str">
         <f>IF(_speed_day_hour!K5="","",_speed_day_hour!K5)</f>
         <v/>
       </c>
-      <c r="N9" s="42" t="str">
+      <c r="N9" s="52" t="str">
         <f>IF(_speed_day_hour!L5="","",_speed_day_hour!L5)</f>
         <v/>
       </c>
-      <c r="O9" s="42" t="str">
+      <c r="O9" s="52" t="str">
         <f>IF(_speed_day_hour!M5="","",_speed_day_hour!M5)</f>
         <v/>
       </c>
-      <c r="P9" s="42" t="str">
+      <c r="P9" s="52" t="str">
         <f>IF(_speed_day_hour!N5="","",_speed_day_hour!N5)</f>
         <v/>
       </c>
-      <c r="Q9" s="42" t="str">
+      <c r="Q9" s="23" t="str">
         <f>IF(_speed_day_hour!O5="","",_speed_day_hour!O5)</f>
         <v/>
       </c>
-      <c r="R9" s="55" t="str">
+      <c r="R9" s="65" t="str">
         <f>IF(_speed_day_hour!P5="","",_speed_day_hour!P5)</f>
         <v/>
       </c>
-      <c r="S9" s="54" t="str">
+      <c r="S9" s="64" t="str">
         <f>IF(_speed_day_hour!Q5="","",_speed_day_hour!Q5)</f>
         <v/>
       </c>
     </row>
     <row r="10" ht="21.45" customHeight="1" spans="2:19">
-      <c r="B10" s="21">
+      <c r="B10" s="22">
         <v>0.166666666666667</v>
       </c>
-      <c r="C10" s="22" t="str">
+      <c r="C10" s="23" t="str">
         <f>IF(_speed_day_hour!A6="","",_speed_day_hour!A6)</f>
         <v/>
       </c>
-      <c r="D10" s="22" t="str">
+      <c r="D10" s="23" t="str">
         <f>IF(_speed_day_hour!B6="","",_speed_day_hour!B6)</f>
         <v/>
       </c>
-      <c r="E10" s="22" t="str">
+      <c r="E10" s="23" t="str">
         <f>IF(_speed_day_hour!C6="","",_speed_day_hour!C6)</f>
         <v/>
       </c>
-      <c r="F10" s="22" t="str">
+      <c r="F10" s="23" t="str">
         <f>IF(_speed_day_hour!D6="","",_speed_day_hour!D6)</f>
         <v/>
       </c>
-      <c r="G10" s="22" t="str">
+      <c r="G10" s="23" t="str">
         <f>IF(_speed_day_hour!E6="","",_speed_day_hour!E6)</f>
         <v/>
       </c>
-      <c r="H10" s="22" t="str">
+      <c r="H10" s="24" t="str">
         <f>IF(_speed_day_hour!F6="","",_speed_day_hour!F6)</f>
         <v/>
       </c>
-      <c r="I10" s="22" t="str">
+      <c r="I10" s="24" t="str">
         <f>IF(_speed_day_hour!G6="","",_speed_day_hour!G6)</f>
         <v/>
       </c>
-      <c r="J10" s="42" t="str">
+      <c r="J10" s="52" t="str">
         <f>IF(_speed_day_hour!H6="","",_speed_day_hour!H6)</f>
         <v/>
       </c>
-      <c r="K10" s="22" t="str">
+      <c r="K10" s="23" t="str">
         <f>IF(_speed_day_hour!I6="","",_speed_day_hour!I6)</f>
         <v/>
       </c>
-      <c r="L10" s="22" t="str">
+      <c r="L10" s="23" t="str">
         <f>IF(_speed_day_hour!J6="","",_speed_day_hour!J6)</f>
         <v/>
       </c>
-      <c r="M10" s="42" t="str">
+      <c r="M10" s="52" t="str">
         <f>IF(_speed_day_hour!K6="","",_speed_day_hour!K6)</f>
         <v/>
       </c>
-      <c r="N10" s="42" t="str">
+      <c r="N10" s="52" t="str">
         <f>IF(_speed_day_hour!L6="","",_speed_day_hour!L6)</f>
         <v/>
       </c>
-      <c r="O10" s="42" t="str">
+      <c r="O10" s="52" t="str">
         <f>IF(_speed_day_hour!M6="","",_speed_day_hour!M6)</f>
         <v/>
       </c>
-      <c r="P10" s="42" t="str">
+      <c r="P10" s="52" t="str">
         <f>IF(_speed_day_hour!N6="","",_speed_day_hour!N6)</f>
         <v/>
       </c>
-      <c r="Q10" s="42" t="str">
+      <c r="Q10" s="23" t="str">
         <f>IF(_speed_day_hour!O6="","",_speed_day_hour!O6)</f>
         <v/>
       </c>
-      <c r="R10" s="55" t="str">
+      <c r="R10" s="65" t="str">
         <f>IF(_speed_day_hour!P6="","",_speed_day_hour!P6)</f>
         <v/>
       </c>
-      <c r="S10" s="54" t="str">
+      <c r="S10" s="64" t="str">
         <f>IF(_speed_day_hour!Q6="","",_speed_day_hour!Q6)</f>
         <v/>
       </c>
     </row>
     <row r="11" ht="21.45" customHeight="1" spans="2:19">
-      <c r="B11" s="21">
+      <c r="B11" s="22">
         <v>0.208333333333333</v>
       </c>
-      <c r="C11" s="22" t="str">
+      <c r="C11" s="23" t="str">
         <f>IF(_speed_day_hour!A7="","",_speed_day_hour!A7)</f>
         <v/>
       </c>
-      <c r="D11" s="22" t="str">
+      <c r="D11" s="23" t="str">
         <f>IF(_speed_day_hour!B7="","",_speed_day_hour!B7)</f>
         <v/>
       </c>
-      <c r="E11" s="22" t="str">
+      <c r="E11" s="23" t="str">
         <f>IF(_speed_day_hour!C7="","",_speed_day_hour!C7)</f>
         <v/>
       </c>
-      <c r="F11" s="22" t="str">
+      <c r="F11" s="23" t="str">
         <f>IF(_speed_day_hour!D7="","",_speed_day_hour!D7)</f>
         <v/>
       </c>
-      <c r="G11" s="22" t="str">
+      <c r="G11" s="23" t="str">
         <f>IF(_speed_day_hour!E7="","",_speed_day_hour!E7)</f>
         <v/>
       </c>
-      <c r="H11" s="22" t="str">
+      <c r="H11" s="24" t="str">
         <f>IF(_speed_day_hour!F7="","",_speed_day_hour!F7)</f>
         <v/>
       </c>
-      <c r="I11" s="22" t="str">
+      <c r="I11" s="24" t="str">
         <f>IF(_speed_day_hour!G7="","",_speed_day_hour!G7)</f>
         <v/>
       </c>
-      <c r="J11" s="42" t="str">
+      <c r="J11" s="52" t="str">
         <f>IF(_speed_day_hour!H7="","",_speed_day_hour!H7)</f>
         <v/>
       </c>
-      <c r="K11" s="22" t="str">
+      <c r="K11" s="23" t="str">
         <f>IF(_speed_day_hour!I7="","",_speed_day_hour!I7)</f>
         <v/>
       </c>
-      <c r="L11" s="22" t="str">
+      <c r="L11" s="23" t="str">
         <f>IF(_speed_day_hour!J7="","",_speed_day_hour!J7)</f>
         <v/>
       </c>
-      <c r="M11" s="42" t="str">
+      <c r="M11" s="52" t="str">
         <f>IF(_speed_day_hour!K7="","",_speed_day_hour!K7)</f>
         <v/>
       </c>
-      <c r="N11" s="42" t="str">
+      <c r="N11" s="52" t="str">
         <f>IF(_speed_day_hour!L7="","",_speed_day_hour!L7)</f>
         <v/>
       </c>
-      <c r="O11" s="42" t="str">
+      <c r="O11" s="52" t="str">
         <f>IF(_speed_day_hour!M7="","",_speed_day_hour!M7)</f>
         <v/>
       </c>
-      <c r="P11" s="42" t="str">
+      <c r="P11" s="52" t="str">
         <f>IF(_speed_day_hour!N7="","",_speed_day_hour!N7)</f>
         <v/>
       </c>
-      <c r="Q11" s="42" t="str">
+      <c r="Q11" s="23" t="str">
         <f>IF(_speed_day_hour!O7="","",_speed_day_hour!O7)</f>
         <v/>
       </c>
-      <c r="R11" s="55" t="str">
+      <c r="R11" s="65" t="str">
         <f>IF(_speed_day_hour!P7="","",_speed_day_hour!P7)</f>
         <v/>
       </c>
-      <c r="S11" s="54" t="str">
+      <c r="S11" s="64" t="str">
         <f>IF(_speed_day_hour!Q7="","",_speed_day_hour!Q7)</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="21.45" customHeight="1" spans="2:19">
-      <c r="B12" s="21">
+      <c r="B12" s="22">
         <v>0.25</v>
       </c>
-      <c r="C12" s="22" t="str">
+      <c r="C12" s="23" t="str">
         <f>IF(_speed_day_hour!A8="","",_speed_day_hour!A8)</f>
         <v/>
       </c>
-      <c r="D12" s="22" t="str">
+      <c r="D12" s="23" t="str">
         <f>IF(_speed_day_hour!B8="","",_speed_day_hour!B8)</f>
         <v/>
       </c>
-      <c r="E12" s="22" t="str">
+      <c r="E12" s="23" t="str">
         <f>IF(_speed_day_hour!C8="","",_speed_day_hour!C8)</f>
         <v/>
       </c>
-      <c r="F12" s="22" t="str">
+      <c r="F12" s="23" t="str">
         <f>IF(_speed_day_hour!D8="","",_speed_day_hour!D8)</f>
         <v/>
       </c>
-      <c r="G12" s="22" t="str">
+      <c r="G12" s="23" t="str">
         <f>IF(_speed_day_hour!E8="","",_speed_day_hour!E8)</f>
         <v/>
       </c>
-      <c r="H12" s="22" t="str">
+      <c r="H12" s="24" t="str">
         <f>IF(_speed_day_hour!F8="","",_speed_day_hour!F8)</f>
         <v/>
       </c>
-      <c r="I12" s="22" t="str">
+      <c r="I12" s="24" t="str">
         <f>IF(_speed_day_hour!G8="","",_speed_day_hour!G8)</f>
         <v/>
       </c>
-      <c r="J12" s="42" t="str">
+      <c r="J12" s="52" t="str">
         <f>IF(_speed_day_hour!H8="","",_speed_day_hour!H8)</f>
         <v/>
       </c>
-      <c r="K12" s="22" t="str">
+      <c r="K12" s="23" t="str">
         <f>IF(_speed_day_hour!I8="","",_speed_day_hour!I8)</f>
         <v/>
       </c>
-      <c r="L12" s="22" t="str">
+      <c r="L12" s="23" t="str">
         <f>IF(_speed_day_hour!J8="","",_speed_day_hour!J8)</f>
         <v/>
       </c>
-      <c r="M12" s="42" t="str">
+      <c r="M12" s="52" t="str">
         <f>IF(_speed_day_hour!K8="","",_speed_day_hour!K8)</f>
         <v/>
       </c>
-      <c r="N12" s="42" t="str">
+      <c r="N12" s="52" t="str">
         <f>IF(_speed_day_hour!L8="","",_speed_day_hour!L8)</f>
         <v/>
       </c>
-      <c r="O12" s="42" t="str">
+      <c r="O12" s="52" t="str">
         <f>IF(_speed_day_hour!M8="","",_speed_day_hour!M8)</f>
         <v/>
       </c>
-      <c r="P12" s="42" t="str">
+      <c r="P12" s="52" t="str">
         <f>IF(_speed_day_hour!N8="","",_speed_day_hour!N8)</f>
         <v/>
       </c>
-      <c r="Q12" s="42" t="str">
+      <c r="Q12" s="23" t="str">
         <f>IF(_speed_day_hour!O8="","",_speed_day_hour!O8)</f>
         <v/>
       </c>
-      <c r="R12" s="55" t="str">
+      <c r="R12" s="65" t="str">
         <f>IF(_speed_day_hour!P8="","",_speed_day_hour!P8)</f>
         <v/>
       </c>
-      <c r="S12" s="54" t="str">
+      <c r="S12" s="64" t="str">
         <f>IF(_speed_day_hour!Q8="","",_speed_day_hour!Q8)</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="21.45" customHeight="1" spans="2:19">
-      <c r="B13" s="21">
+      <c r="B13" s="22">
         <v>0.291666666666667</v>
       </c>
-      <c r="C13" s="22" t="str">
+      <c r="C13" s="23" t="str">
         <f>IF(_speed_day_hour!A9="","",_speed_day_hour!A9)</f>
         <v/>
       </c>
-      <c r="D13" s="22" t="str">
+      <c r="D13" s="23" t="str">
         <f>IF(_speed_day_hour!B9="","",_speed_day_hour!B9)</f>
         <v/>
       </c>
-      <c r="E13" s="22" t="str">
+      <c r="E13" s="23" t="str">
         <f>IF(_speed_day_hour!C9="","",_speed_day_hour!C9)</f>
         <v/>
       </c>
-      <c r="F13" s="22" t="str">
+      <c r="F13" s="23" t="str">
         <f>IF(_speed_day_hour!D9="","",_speed_day_hour!D9)</f>
         <v/>
       </c>
-      <c r="G13" s="22" t="str">
+      <c r="G13" s="23" t="str">
         <f>IF(_speed_day_hour!E9="","",_speed_day_hour!E9)</f>
         <v/>
       </c>
-      <c r="H13" s="22" t="str">
+      <c r="H13" s="24" t="str">
         <f>IF(_speed_day_hour!F9="","",_speed_day_hour!F9)</f>
         <v/>
       </c>
-      <c r="I13" s="22" t="str">
+      <c r="I13" s="24" t="str">
         <f>IF(_speed_day_hour!G9="","",_speed_day_hour!G9)</f>
         <v/>
       </c>
-      <c r="J13" s="42" t="str">
+      <c r="J13" s="52" t="str">
         <f>IF(_speed_day_hour!H9="","",_speed_day_hour!H9)</f>
         <v/>
       </c>
-      <c r="K13" s="22" t="str">
+      <c r="K13" s="23" t="str">
         <f>IF(_speed_day_hour!I9="","",_speed_day_hour!I9)</f>
         <v/>
       </c>
-      <c r="L13" s="22" t="str">
+      <c r="L13" s="23" t="str">
         <f>IF(_speed_day_hour!J9="","",_speed_day_hour!J9)</f>
         <v/>
       </c>
-      <c r="M13" s="42" t="str">
+      <c r="M13" s="52" t="str">
         <f>IF(_speed_day_hour!K9="","",_speed_day_hour!K9)</f>
         <v/>
       </c>
-      <c r="N13" s="42" t="str">
+      <c r="N13" s="52" t="str">
         <f>IF(_speed_day_hour!L9="","",_speed_day_hour!L9)</f>
         <v/>
       </c>
-      <c r="O13" s="42" t="str">
+      <c r="O13" s="52" t="str">
         <f>IF(_speed_day_hour!M9="","",_speed_day_hour!M9)</f>
         <v/>
       </c>
-      <c r="P13" s="42" t="str">
+      <c r="P13" s="52" t="str">
         <f>IF(_speed_day_hour!N9="","",_speed_day_hour!N9)</f>
         <v/>
       </c>
-      <c r="Q13" s="42" t="str">
+      <c r="Q13" s="23" t="str">
         <f>IF(_speed_day_hour!O9="","",_speed_day_hour!O9)</f>
         <v/>
       </c>
-      <c r="R13" s="55" t="str">
+      <c r="R13" s="65" t="str">
         <f>IF(_speed_day_hour!P9="","",_speed_day_hour!P9)</f>
         <v/>
       </c>
-      <c r="S13" s="54" t="str">
+      <c r="S13" s="64" t="str">
         <f>IF(_speed_day_hour!Q9="","",_speed_day_hour!Q9)</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="21.45" customHeight="1" spans="2:19">
-      <c r="B14" s="21">
+      <c r="B14" s="22">
         <v>0.333333333333333</v>
       </c>
-      <c r="C14" s="22" t="str">
+      <c r="C14" s="23" t="str">
         <f>IF(_speed_day_hour!A10="","",_speed_day_hour!A10)</f>
         <v/>
       </c>
-      <c r="D14" s="22" t="str">
+      <c r="D14" s="23" t="str">
         <f>IF(_speed_day_hour!B10="","",_speed_day_hour!B10)</f>
         <v/>
       </c>
-      <c r="E14" s="22" t="str">
+      <c r="E14" s="23" t="str">
         <f>IF(_speed_day_hour!C10="","",_speed_day_hour!C10)</f>
         <v/>
       </c>
-      <c r="F14" s="22" t="str">
+      <c r="F14" s="23" t="str">
         <f>IF(_speed_day_hour!D10="","",_speed_day_hour!D10)</f>
         <v/>
       </c>
-      <c r="G14" s="22" t="str">
+      <c r="G14" s="23" t="str">
         <f>IF(_speed_day_hour!E10="","",_speed_day_hour!E10)</f>
         <v/>
       </c>
-      <c r="H14" s="22" t="str">
+      <c r="H14" s="24" t="str">
         <f>IF(_speed_day_hour!F10="","",_speed_day_hour!F10)</f>
         <v/>
       </c>
-      <c r="I14" s="22" t="str">
+      <c r="I14" s="24" t="str">
         <f>IF(_speed_day_hour!G10="","",_speed_day_hour!G10)</f>
         <v/>
       </c>
-      <c r="J14" s="42" t="str">
+      <c r="J14" s="52" t="str">
         <f>IF(_speed_day_hour!H10="","",_speed_day_hour!H10)</f>
         <v/>
       </c>
-      <c r="K14" s="22" t="str">
+      <c r="K14" s="23" t="str">
         <f>IF(_speed_day_hour!I10="","",_speed_day_hour!I10)</f>
         <v/>
       </c>
-      <c r="L14" s="22" t="str">
+      <c r="L14" s="23" t="str">
         <f>IF(_speed_day_hour!J10="","",_speed_day_hour!J10)</f>
         <v/>
       </c>
-      <c r="M14" s="42" t="str">
+      <c r="M14" s="52" t="str">
         <f>IF(_speed_day_hour!K10="","",_speed_day_hour!K10)</f>
         <v/>
       </c>
-      <c r="N14" s="42" t="str">
+      <c r="N14" s="52" t="str">
         <f>IF(_speed_day_hour!L10="","",_speed_day_hour!L10)</f>
         <v/>
       </c>
-      <c r="O14" s="42" t="str">
+      <c r="O14" s="52" t="str">
         <f>IF(_speed_day_hour!M10="","",_speed_day_hour!M10)</f>
         <v/>
       </c>
-      <c r="P14" s="42" t="str">
+      <c r="P14" s="52" t="str">
         <f>IF(_speed_day_hour!N10="","",_speed_day_hour!N10)</f>
         <v/>
       </c>
-      <c r="Q14" s="42" t="str">
+      <c r="Q14" s="23" t="str">
         <f>IF(_speed_day_hour!O10="","",_speed_day_hour!O10)</f>
         <v/>
       </c>
-      <c r="R14" s="55" t="str">
+      <c r="R14" s="65" t="str">
         <f>IF(_speed_day_hour!P10="","",_speed_day_hour!P10)</f>
         <v/>
       </c>
-      <c r="S14" s="54" t="str">
+      <c r="S14" s="64" t="str">
         <f>IF(_speed_day_hour!Q10="","",_speed_day_hour!Q10)</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="21.45" customHeight="1" spans="2:19">
-      <c r="B15" s="21">
+      <c r="B15" s="22">
         <v>0.375</v>
       </c>
-      <c r="C15" s="22" t="str">
+      <c r="C15" s="23" t="str">
         <f>IF(_speed_day_hour!A11="","",_speed_day_hour!A11)</f>
         <v/>
       </c>
-      <c r="D15" s="22" t="str">
+      <c r="D15" s="23" t="str">
         <f>IF(_speed_day_hour!B11="","",_speed_day_hour!B11)</f>
         <v/>
       </c>
-      <c r="E15" s="22" t="str">
+      <c r="E15" s="23" t="str">
         <f>IF(_speed_day_hour!C11="","",_speed_day_hour!C11)</f>
         <v/>
       </c>
-      <c r="F15" s="22" t="str">
+      <c r="F15" s="23" t="str">
         <f>IF(_speed_day_hour!D11="","",_speed_day_hour!D11)</f>
         <v/>
       </c>
-      <c r="G15" s="22" t="str">
+      <c r="G15" s="23" t="str">
         <f>IF(_speed_day_hour!E11="","",_speed_day_hour!E11)</f>
         <v/>
       </c>
-      <c r="H15" s="22" t="str">
+      <c r="H15" s="24" t="str">
         <f>IF(_speed_day_hour!F11="","",_speed_day_hour!F11)</f>
         <v/>
       </c>
-      <c r="I15" s="22" t="str">
+      <c r="I15" s="24" t="str">
         <f>IF(_speed_day_hour!G11="","",_speed_day_hour!G11)</f>
         <v/>
       </c>
-      <c r="J15" s="42" t="str">
+      <c r="J15" s="52" t="str">
         <f>IF(_speed_day_hour!H11="","",_speed_day_hour!H11)</f>
         <v/>
       </c>
-      <c r="K15" s="22" t="str">
+      <c r="K15" s="23" t="str">
         <f>IF(_speed_day_hour!I11="","",_speed_day_hour!I11)</f>
         <v/>
       </c>
-      <c r="L15" s="22" t="str">
+      <c r="L15" s="23" t="str">
         <f>IF(_speed_day_hour!J11="","",_speed_day_hour!J11)</f>
         <v/>
       </c>
-      <c r="M15" s="42" t="str">
+      <c r="M15" s="52" t="str">
         <f>IF(_speed_day_hour!K11="","",_speed_day_hour!K11)</f>
         <v/>
       </c>
-      <c r="N15" s="42" t="str">
+      <c r="N15" s="52" t="str">
         <f>IF(_speed_day_hour!L11="","",_speed_day_hour!L11)</f>
         <v/>
       </c>
-      <c r="O15" s="42" t="str">
+      <c r="O15" s="52" t="str">
         <f>IF(_speed_day_hour!M11="","",_speed_day_hour!M11)</f>
         <v/>
       </c>
-      <c r="P15" s="42" t="str">
+      <c r="P15" s="52" t="str">
         <f>IF(_speed_day_hour!N11="","",_speed_day_hour!N11)</f>
         <v/>
       </c>
-      <c r="Q15" s="42" t="str">
+      <c r="Q15" s="23" t="str">
         <f>IF(_speed_day_hour!O11="","",_speed_day_hour!O11)</f>
         <v/>
       </c>
-      <c r="R15" s="55" t="str">
+      <c r="R15" s="65" t="str">
         <f>IF(_speed_day_hour!P11="","",_speed_day_hour!P11)</f>
         <v/>
       </c>
-      <c r="S15" s="54" t="str">
+      <c r="S15" s="64" t="str">
         <f>IF(_speed_day_hour!Q11="","",_speed_day_hour!Q11)</f>
         <v/>
       </c>
     </row>
     <row r="16" ht="21.45" customHeight="1" spans="2:19">
-      <c r="B16" s="21">
+      <c r="B16" s="22">
         <v>0.416666666666667</v>
       </c>
-      <c r="C16" s="22" t="str">
+      <c r="C16" s="23" t="str">
         <f>IF(_speed_day_hour!A12="","",_speed_day_hour!A12)</f>
         <v/>
       </c>
-      <c r="D16" s="22" t="str">
+      <c r="D16" s="23" t="str">
         <f>IF(_speed_day_hour!B12="","",_speed_day_hour!B12)</f>
         <v/>
       </c>
-      <c r="E16" s="22" t="str">
+      <c r="E16" s="23" t="str">
         <f>IF(_speed_day_hour!C12="","",_speed_day_hour!C12)</f>
         <v/>
       </c>
-      <c r="F16" s="22" t="str">
+      <c r="F16" s="23" t="str">
         <f>IF(_speed_day_hour!D12="","",_speed_day_hour!D12)</f>
         <v/>
       </c>
-      <c r="G16" s="22" t="str">
+      <c r="G16" s="23" t="str">
         <f>IF(_speed_day_hour!E12="","",_speed_day_hour!E12)</f>
         <v/>
       </c>
-      <c r="H16" s="22" t="str">
+      <c r="H16" s="24" t="str">
         <f>IF(_speed_day_hour!F12="","",_speed_day_hour!F12)</f>
         <v/>
       </c>
-      <c r="I16" s="22" t="str">
+      <c r="I16" s="24" t="str">
         <f>IF(_speed_day_hour!G12="","",_speed_day_hour!G12)</f>
         <v/>
       </c>
-      <c r="J16" s="42" t="str">
+      <c r="J16" s="52" t="str">
         <f>IF(_speed_day_hour!H12="","",_speed_day_hour!H12)</f>
         <v/>
       </c>
-      <c r="K16" s="22" t="str">
+      <c r="K16" s="23" t="str">
         <f>IF(_speed_day_hour!I12="","",_speed_day_hour!I12)</f>
         <v/>
       </c>
-      <c r="L16" s="22" t="str">
+      <c r="L16" s="23" t="str">
         <f>IF(_speed_day_hour!J12="","",_speed_day_hour!J12)</f>
         <v/>
       </c>
-      <c r="M16" s="42" t="str">
+      <c r="M16" s="52" t="str">
         <f>IF(_speed_day_hour!K12="","",_speed_day_hour!K12)</f>
         <v/>
       </c>
-      <c r="N16" s="42" t="str">
+      <c r="N16" s="52" t="str">
         <f>IF(_speed_day_hour!L12="","",_speed_day_hour!L12)</f>
         <v/>
       </c>
-      <c r="O16" s="42" t="str">
+      <c r="O16" s="52" t="str">
         <f>IF(_speed_day_hour!M12="","",_speed_day_hour!M12)</f>
         <v/>
       </c>
-      <c r="P16" s="42" t="str">
+      <c r="P16" s="52" t="str">
         <f>IF(_speed_day_hour!N12="","",_speed_day_hour!N12)</f>
         <v/>
       </c>
-      <c r="Q16" s="42" t="str">
+      <c r="Q16" s="23" t="str">
         <f>IF(_speed_day_hour!O12="","",_speed_day_hour!O12)</f>
         <v/>
       </c>
-      <c r="R16" s="55" t="str">
+      <c r="R16" s="65" t="str">
         <f>IF(_speed_day_hour!P12="","",_speed_day_hour!P12)</f>
         <v/>
       </c>
-      <c r="S16" s="54" t="str">
+      <c r="S16" s="64" t="str">
         <f>IF(_speed_day_hour!Q12="","",_speed_day_hour!Q12)</f>
         <v/>
       </c>
     </row>
     <row r="17" ht="21.45" customHeight="1" spans="2:19">
-      <c r="B17" s="21">
+      <c r="B17" s="22">
         <v>0.458333333333333</v>
       </c>
-      <c r="C17" s="22" t="str">
+      <c r="C17" s="23" t="str">
         <f>IF(_speed_day_hour!A13="","",_speed_day_hour!A13)</f>
         <v/>
       </c>
-      <c r="D17" s="22" t="str">
+      <c r="D17" s="23" t="str">
         <f>IF(_speed_day_hour!B13="","",_speed_day_hour!B13)</f>
         <v/>
       </c>
-      <c r="E17" s="22" t="str">
+      <c r="E17" s="23" t="str">
         <f>IF(_speed_day_hour!C13="","",_speed_day_hour!C13)</f>
         <v/>
       </c>
-      <c r="F17" s="22" t="str">
+      <c r="F17" s="23" t="str">
         <f>IF(_speed_day_hour!D13="","",_speed_day_hour!D13)</f>
         <v/>
       </c>
-      <c r="G17" s="22" t="str">
+      <c r="G17" s="23" t="str">
         <f>IF(_speed_day_hour!E13="","",_speed_day_hour!E13)</f>
         <v/>
       </c>
-      <c r="H17" s="22" t="str">
+      <c r="H17" s="24" t="str">
         <f>IF(_speed_day_hour!F13="","",_speed_day_hour!F13)</f>
         <v/>
       </c>
-      <c r="I17" s="22" t="str">
+      <c r="I17" s="24" t="str">
         <f>IF(_speed_day_hour!G13="","",_speed_day_hour!G13)</f>
         <v/>
       </c>
-      <c r="J17" s="42" t="str">
+      <c r="J17" s="52" t="str">
         <f>IF(_speed_day_hour!H13="","",_speed_day_hour!H13)</f>
         <v/>
       </c>
-      <c r="K17" s="22" t="str">
+      <c r="K17" s="23" t="str">
         <f>IF(_speed_day_hour!I13="","",_speed_day_hour!I13)</f>
         <v/>
       </c>
-      <c r="L17" s="22" t="str">
+      <c r="L17" s="23" t="str">
         <f>IF(_speed_day_hour!J13="","",_speed_day_hour!J13)</f>
         <v/>
       </c>
-      <c r="M17" s="42" t="str">
+      <c r="M17" s="52" t="str">
         <f>IF(_speed_day_hour!K13="","",_speed_day_hour!K13)</f>
         <v/>
       </c>
-      <c r="N17" s="42" t="str">
+      <c r="N17" s="52" t="str">
         <f>IF(_speed_day_hour!L13="","",_speed_day_hour!L13)</f>
         <v/>
       </c>
-      <c r="O17" s="42" t="str">
+      <c r="O17" s="52" t="str">
         <f>IF(_speed_day_hour!M13="","",_speed_day_hour!M13)</f>
         <v/>
       </c>
-      <c r="P17" s="42" t="str">
+      <c r="P17" s="52" t="str">
         <f>IF(_speed_day_hour!N13="","",_speed_day_hour!N13)</f>
         <v/>
       </c>
-      <c r="Q17" s="42" t="str">
+      <c r="Q17" s="23" t="str">
         <f>IF(_speed_day_hour!O13="","",_speed_day_hour!O13)</f>
         <v/>
       </c>
-      <c r="R17" s="55" t="str">
+      <c r="R17" s="65" t="str">
         <f>IF(_speed_day_hour!P13="","",_speed_day_hour!P13)</f>
         <v/>
       </c>
-      <c r="S17" s="54" t="str">
+      <c r="S17" s="64" t="str">
         <f>IF(_speed_day_hour!Q13="","",_speed_day_hour!Q13)</f>
         <v/>
       </c>
     </row>
     <row r="18" ht="21.45" customHeight="1" spans="2:19">
-      <c r="B18" s="21">
+      <c r="B18" s="22">
         <v>0.5</v>
       </c>
-      <c r="C18" s="23" t="str">
+      <c r="C18" s="25" t="str">
         <f>IF(_speed_day_hour!A14="","",_speed_day_hour!A14)</f>
         <v/>
       </c>
-      <c r="D18" s="23" t="str">
+      <c r="D18" s="25" t="str">
         <f>IF(_speed_day_hour!B14="","",_speed_day_hour!B14)</f>
         <v/>
       </c>
-      <c r="E18" s="23" t="str">
+      <c r="E18" s="25" t="str">
         <f>IF(_speed_day_hour!C14="","",_speed_day_hour!C14)</f>
         <v/>
       </c>
-      <c r="F18" s="23" t="str">
+      <c r="F18" s="25" t="str">
         <f>IF(_speed_day_hour!D14="","",_speed_day_hour!D14)</f>
         <v/>
       </c>
-      <c r="G18" s="23" t="str">
+      <c r="G18" s="25" t="str">
         <f>IF(_speed_day_hour!E14="","",_speed_day_hour!E14)</f>
         <v/>
       </c>
-      <c r="H18" s="23" t="str">
+      <c r="H18" s="26" t="str">
         <f>IF(_speed_day_hour!F14="","",_speed_day_hour!F14)</f>
         <v/>
       </c>
-      <c r="I18" s="23" t="str">
+      <c r="I18" s="26" t="str">
         <f>IF(_speed_day_hour!G14="","",_speed_day_hour!G14)</f>
         <v/>
       </c>
-      <c r="J18" s="43" t="str">
+      <c r="J18" s="53" t="str">
         <f>IF(_speed_day_hour!H14="","",_speed_day_hour!H14)</f>
         <v/>
       </c>
-      <c r="K18" s="23" t="str">
+      <c r="K18" s="25" t="str">
         <f>IF(_speed_day_hour!I14="","",_speed_day_hour!I14)</f>
         <v/>
       </c>
-      <c r="L18" s="23" t="str">
+      <c r="L18" s="25" t="str">
         <f>IF(_speed_day_hour!J14="","",_speed_day_hour!J14)</f>
         <v/>
       </c>
-      <c r="M18" s="43" t="str">
+      <c r="M18" s="53" t="str">
         <f>IF(_speed_day_hour!K14="","",_speed_day_hour!K14)</f>
         <v/>
       </c>
-      <c r="N18" s="43" t="str">
+      <c r="N18" s="53" t="str">
         <f>IF(_speed_day_hour!L14="","",_speed_day_hour!L14)</f>
         <v/>
       </c>
-      <c r="O18" s="43" t="str">
+      <c r="O18" s="53" t="str">
         <f>IF(_speed_day_hour!M14="","",_speed_day_hour!M14)</f>
         <v/>
       </c>
-      <c r="P18" s="44" t="str">
+      <c r="P18" s="54" t="str">
         <f>IF(_speed_day_hour!N14="","",_speed_day_hour!N14)</f>
         <v/>
       </c>
-      <c r="Q18" s="44" t="str">
+      <c r="Q18" s="66" t="str">
         <f>IF(_speed_day_hour!O14="","",_speed_day_hour!O14)</f>
         <v/>
       </c>
-      <c r="R18" s="53" t="str">
+      <c r="R18" s="63" t="str">
         <f>IF(_speed_day_hour!P14="","",_speed_day_hour!P14)</f>
         <v/>
       </c>
-      <c r="S18" s="56" t="str">
+      <c r="S18" s="67" t="str">
         <f>IF(_speed_day_hour!Q14="","",_speed_day_hour!Q14)</f>
         <v/>
       </c>
     </row>
     <row r="19" ht="21.45" customHeight="1" spans="2:19">
-      <c r="B19" s="21">
+      <c r="B19" s="22">
         <v>0.541666666666667</v>
       </c>
-      <c r="C19" s="23" t="str">
+      <c r="C19" s="25" t="str">
         <f>IF(_speed_day_hour!A15="","",_speed_day_hour!A15)</f>
         <v/>
       </c>
-      <c r="D19" s="23" t="str">
+      <c r="D19" s="25" t="str">
         <f>IF(_speed_day_hour!B15="","",_speed_day_hour!B15)</f>
         <v/>
       </c>
-      <c r="E19" s="23" t="str">
+      <c r="E19" s="25" t="str">
         <f>IF(_speed_day_hour!C15="","",_speed_day_hour!C15)</f>
         <v/>
       </c>
-      <c r="F19" s="23" t="str">
+      <c r="F19" s="25" t="str">
         <f>IF(_speed_day_hour!D15="","",_speed_day_hour!D15)</f>
         <v/>
       </c>
-      <c r="G19" s="23" t="str">
+      <c r="G19" s="25" t="str">
         <f>IF(_speed_day_hour!E15="","",_speed_day_hour!E15)</f>
         <v/>
       </c>
-      <c r="H19" s="23" t="str">
+      <c r="H19" s="26" t="str">
         <f>IF(_speed_day_hour!F15="","",_speed_day_hour!F15)</f>
         <v/>
       </c>
-      <c r="I19" s="23" t="str">
+      <c r="I19" s="26" t="str">
         <f>IF(_speed_day_hour!G15="","",_speed_day_hour!G15)</f>
         <v/>
       </c>
-      <c r="J19" s="43" t="str">
+      <c r="J19" s="53" t="str">
         <f>IF(_speed_day_hour!H15="","",_speed_day_hour!H15)</f>
         <v/>
       </c>
-      <c r="K19" s="23" t="str">
+      <c r="K19" s="25" t="str">
         <f>IF(_speed_day_hour!I15="","",_speed_day_hour!I15)</f>
         <v/>
       </c>
-      <c r="L19" s="23" t="str">
+      <c r="L19" s="25" t="str">
         <f>IF(_speed_day_hour!J15="","",_speed_day_hour!J15)</f>
         <v/>
       </c>
-      <c r="M19" s="43" t="str">
+      <c r="M19" s="53" t="str">
         <f>IF(_speed_day_hour!K15="","",_speed_day_hour!K15)</f>
         <v/>
       </c>
-      <c r="N19" s="43" t="str">
+      <c r="N19" s="53" t="str">
         <f>IF(_speed_day_hour!L15="","",_speed_day_hour!L15)</f>
         <v/>
       </c>
-      <c r="O19" s="43" t="str">
+      <c r="O19" s="53" t="str">
         <f>IF(_speed_day_hour!M15="","",_speed_day_hour!M15)</f>
         <v/>
       </c>
-      <c r="P19" s="44" t="str">
+      <c r="P19" s="54" t="str">
         <f>IF(_speed_day_hour!N15="","",_speed_day_hour!N15)</f>
         <v/>
       </c>
-      <c r="Q19" s="44" t="str">
+      <c r="Q19" s="66" t="str">
         <f>IF(_speed_day_hour!O15="","",_speed_day_hour!O15)</f>
         <v/>
       </c>
-      <c r="R19" s="53" t="str">
+      <c r="R19" s="63" t="str">
         <f>IF(_speed_day_hour!P15="","",_speed_day_hour!P15)</f>
         <v/>
       </c>
-      <c r="S19" s="56" t="str">
+      <c r="S19" s="67" t="str">
         <f>IF(_speed_day_hour!Q15="","",_speed_day_hour!Q15)</f>
         <v/>
       </c>
     </row>
     <row r="20" ht="21.45" customHeight="1" spans="2:19">
-      <c r="B20" s="21">
+      <c r="B20" s="22">
         <v>0.583333333333333</v>
       </c>
-      <c r="C20" s="23" t="str">
+      <c r="C20" s="25" t="str">
         <f>IF(_speed_day_hour!A16="","",_speed_day_hour!A16)</f>
         <v/>
       </c>
-      <c r="D20" s="23" t="str">
+      <c r="D20" s="25" t="str">
         <f>IF(_speed_day_hour!B16="","",_speed_day_hour!B16)</f>
         <v/>
       </c>
-      <c r="E20" s="23" t="str">
+      <c r="E20" s="25" t="str">
         <f>IF(_speed_day_hour!C16="","",_speed_day_hour!C16)</f>
         <v/>
       </c>
-      <c r="F20" s="23" t="str">
+      <c r="F20" s="25" t="str">
         <f>IF(_speed_day_hour!D16="","",_speed_day_hour!D16)</f>
         <v/>
       </c>
-      <c r="G20" s="23" t="str">
+      <c r="G20" s="25" t="str">
         <f>IF(_speed_day_hour!E16="","",_speed_day_hour!E16)</f>
         <v/>
       </c>
-      <c r="H20" s="23" t="str">
+      <c r="H20" s="26" t="str">
         <f>IF(_speed_day_hour!F16="","",_speed_day_hour!F16)</f>
         <v/>
       </c>
-      <c r="I20" s="23" t="str">
+      <c r="I20" s="26" t="str">
         <f>IF(_speed_day_hour!G16="","",_speed_day_hour!G16)</f>
         <v/>
       </c>
-      <c r="J20" s="43" t="str">
+      <c r="J20" s="53" t="str">
         <f>IF(_speed_day_hour!H16="","",_speed_day_hour!H16)</f>
         <v/>
       </c>
-      <c r="K20" s="23" t="str">
+      <c r="K20" s="25" t="str">
         <f>IF(_speed_day_hour!I16="","",_speed_day_hour!I16)</f>
         <v/>
       </c>
-      <c r="L20" s="23" t="str">
+      <c r="L20" s="25" t="str">
         <f>IF(_speed_day_hour!J16="","",_speed_day_hour!J16)</f>
         <v/>
       </c>
-      <c r="M20" s="43" t="str">
+      <c r="M20" s="53" t="str">
         <f>IF(_speed_day_hour!K16="","",_speed_day_hour!K16)</f>
         <v/>
       </c>
-      <c r="N20" s="43" t="str">
+      <c r="N20" s="53" t="str">
         <f>IF(_speed_day_hour!L16="","",_speed_day_hour!L16)</f>
         <v/>
       </c>
-      <c r="O20" s="43" t="str">
+      <c r="O20" s="53" t="str">
         <f>IF(_speed_day_hour!M16="","",_speed_day_hour!M16)</f>
         <v/>
       </c>
-      <c r="P20" s="44" t="str">
+      <c r="P20" s="54" t="str">
         <f>IF(_speed_day_hour!N16="","",_speed_day_hour!N16)</f>
         <v/>
       </c>
-      <c r="Q20" s="44" t="str">
+      <c r="Q20" s="66" t="str">
         <f>IF(_speed_day_hour!O16="","",_speed_day_hour!O16)</f>
         <v/>
       </c>
-      <c r="R20" s="53" t="str">
+      <c r="R20" s="63" t="str">
         <f>IF(_speed_day_hour!P16="","",_speed_day_hour!P16)</f>
         <v/>
       </c>
-      <c r="S20" s="56" t="str">
+      <c r="S20" s="67" t="str">
         <f>IF(_speed_day_hour!Q16="","",_speed_day_hour!Q16)</f>
         <v/>
       </c>
     </row>
     <row r="21" ht="21.45" customHeight="1" spans="2:19">
-      <c r="B21" s="21">
+      <c r="B21" s="22">
         <v>0.625</v>
       </c>
-      <c r="C21" s="23" t="str">
+      <c r="C21" s="25" t="str">
         <f>IF(_speed_day_hour!A17="","",_speed_day_hour!A17)</f>
         <v/>
       </c>
-      <c r="D21" s="23" t="str">
+      <c r="D21" s="25" t="str">
         <f>IF(_speed_day_hour!B17="","",_speed_day_hour!B17)</f>
         <v/>
       </c>
-      <c r="E21" s="23" t="str">
+      <c r="E21" s="25" t="str">
         <f>IF(_speed_day_hour!C17="","",_speed_day_hour!C17)</f>
         <v/>
       </c>
-      <c r="F21" s="23" t="str">
+      <c r="F21" s="25" t="str">
         <f>IF(_speed_day_hour!D17="","",_speed_day_hour!D17)</f>
         <v/>
       </c>
-      <c r="G21" s="23" t="str">
+      <c r="G21" s="25" t="str">
         <f>IF(_speed_day_hour!E17="","",_speed_day_hour!E17)</f>
         <v/>
       </c>
-      <c r="H21" s="23" t="str">
+      <c r="H21" s="26" t="str">
         <f>IF(_speed_day_hour!F17="","",_speed_day_hour!F17)</f>
         <v/>
       </c>
-      <c r="I21" s="23" t="str">
+      <c r="I21" s="26" t="str">
         <f>IF(_speed_day_hour!G17="","",_speed_day_hour!G17)</f>
         <v/>
       </c>
-      <c r="J21" s="43" t="str">
+      <c r="J21" s="53" t="str">
         <f>IF(_speed_day_hour!H17="","",_speed_day_hour!H17)</f>
         <v/>
       </c>
-      <c r="K21" s="23" t="str">
+      <c r="K21" s="25" t="str">
         <f>IF(_speed_day_hour!I17="","",_speed_day_hour!I17)</f>
         <v/>
       </c>
-      <c r="L21" s="23" t="str">
+      <c r="L21" s="25" t="str">
         <f>IF(_speed_day_hour!J17="","",_speed_day_hour!J17)</f>
         <v/>
       </c>
-      <c r="M21" s="43" t="str">
+      <c r="M21" s="53" t="str">
         <f>IF(_speed_day_hour!K17="","",_speed_day_hour!K17)</f>
         <v/>
       </c>
-      <c r="N21" s="43" t="str">
+      <c r="N21" s="53" t="str">
         <f>IF(_speed_day_hour!L17="","",_speed_day_hour!L17)</f>
         <v/>
       </c>
-      <c r="O21" s="43" t="str">
+      <c r="O21" s="53" t="str">
         <f>IF(_speed_day_hour!M17="","",_speed_day_hour!M17)</f>
         <v/>
       </c>
-      <c r="P21" s="44" t="str">
+      <c r="P21" s="54" t="str">
         <f>IF(_speed_day_hour!N17="","",_speed_day_hour!N17)</f>
         <v/>
       </c>
-      <c r="Q21" s="44" t="str">
+      <c r="Q21" s="66" t="str">
         <f>IF(_speed_day_hour!O17="","",_speed_day_hour!O17)</f>
         <v/>
       </c>
-      <c r="R21" s="53" t="str">
+      <c r="R21" s="63" t="str">
         <f>IF(_speed_day_hour!P17="","",_speed_day_hour!P17)</f>
         <v/>
       </c>
-      <c r="S21" s="56" t="str">
+      <c r="S21" s="67" t="str">
         <f>IF(_speed_day_hour!Q17="","",_speed_day_hour!Q17)</f>
         <v/>
       </c>
     </row>
     <row r="22" ht="21.45" customHeight="1" spans="2:19">
-      <c r="B22" s="21">
+      <c r="B22" s="22">
         <v>0.666666666666667</v>
       </c>
-      <c r="C22" s="23" t="str">
+      <c r="C22" s="25" t="str">
         <f>IF(_speed_day_hour!A18="","",_speed_day_hour!A18)</f>
         <v/>
       </c>
-      <c r="D22" s="23" t="str">
+      <c r="D22" s="25" t="str">
         <f>IF(_speed_day_hour!B18="","",_speed_day_hour!B18)</f>
         <v/>
       </c>
-      <c r="E22" s="23" t="str">
+      <c r="E22" s="25" t="str">
         <f>IF(_speed_day_hour!C18="","",_speed_day_hour!C18)</f>
         <v/>
       </c>
-      <c r="F22" s="23" t="str">
+      <c r="F22" s="25" t="str">
         <f>IF(_speed_day_hour!D18="","",_speed_day_hour!D18)</f>
         <v/>
       </c>
-      <c r="G22" s="23" t="str">
+      <c r="G22" s="25" t="str">
         <f>IF(_speed_day_hour!E18="","",_speed_day_hour!E18)</f>
         <v/>
       </c>
-      <c r="H22" s="23" t="str">
+      <c r="H22" s="26" t="str">
         <f>IF(_speed_day_hour!F18="","",_speed_day_hour!F18)</f>
         <v/>
       </c>
-      <c r="I22" s="23" t="str">
+      <c r="I22" s="26" t="str">
         <f>IF(_speed_day_hour!G18="","",_speed_day_hour!G18)</f>
         <v/>
       </c>
-      <c r="J22" s="43" t="str">
+      <c r="J22" s="53" t="str">
         <f>IF(_speed_day_hour!H18="","",_speed_day_hour!H18)</f>
         <v/>
       </c>
-      <c r="K22" s="23" t="str">
+      <c r="K22" s="25" t="str">
         <f>IF(_speed_day_hour!I18="","",_speed_day_hour!I18)</f>
         <v/>
       </c>
-      <c r="L22" s="23" t="str">
+      <c r="L22" s="25" t="str">
         <f>IF(_speed_day_hour!J18="","",_speed_day_hour!J18)</f>
         <v/>
       </c>
-      <c r="M22" s="43" t="str">
+      <c r="M22" s="53" t="str">
         <f>IF(_speed_day_hour!K18="","",_speed_day_hour!K18)</f>
         <v/>
       </c>
-      <c r="N22" s="43" t="str">
+      <c r="N22" s="53" t="str">
         <f>IF(_speed_day_hour!L18="","",_speed_day_hour!L18)</f>
         <v/>
       </c>
-      <c r="O22" s="43" t="str">
+      <c r="O22" s="53" t="str">
         <f>IF(_speed_day_hour!M18="","",_speed_day_hour!M18)</f>
         <v/>
       </c>
-      <c r="P22" s="44" t="str">
+      <c r="P22" s="54" t="str">
         <f>IF(_speed_day_hour!N18="","",_speed_day_hour!N18)</f>
         <v/>
       </c>
-      <c r="Q22" s="44" t="str">
+      <c r="Q22" s="66" t="str">
         <f>IF(_speed_day_hour!O18="","",_speed_day_hour!O18)</f>
         <v/>
       </c>
-      <c r="R22" s="53" t="str">
+      <c r="R22" s="63" t="str">
         <f>IF(_speed_day_hour!P18="","",_speed_day_hour!P18)</f>
         <v/>
       </c>
-      <c r="S22" s="56" t="str">
+      <c r="S22" s="67" t="str">
         <f>IF(_speed_day_hour!Q18="","",_speed_day_hour!Q18)</f>
         <v/>
       </c>
     </row>
     <row r="23" ht="21.45" customHeight="1" spans="2:19">
-      <c r="B23" s="21">
+      <c r="B23" s="22">
         <v>0.708333333333333</v>
       </c>
-      <c r="C23" s="23" t="str">
+      <c r="C23" s="25" t="str">
         <f>IF(_speed_day_hour!A19="","",_speed_day_hour!A19)</f>
         <v/>
       </c>
-      <c r="D23" s="23" t="str">
+      <c r="D23" s="25" t="str">
         <f>IF(_speed_day_hour!B19="","",_speed_day_hour!B19)</f>
         <v/>
       </c>
-      <c r="E23" s="23" t="str">
+      <c r="E23" s="25" t="str">
         <f>IF(_speed_day_hour!C19="","",_speed_day_hour!C19)</f>
         <v/>
       </c>
-      <c r="F23" s="23" t="str">
+      <c r="F23" s="25" t="str">
         <f>IF(_speed_day_hour!D19="","",_speed_day_hour!D19)</f>
         <v/>
       </c>
-      <c r="G23" s="23" t="str">
+      <c r="G23" s="25" t="str">
         <f>IF(_speed_day_hour!E19="","",_speed_day_hour!E19)</f>
         <v/>
       </c>
-      <c r="H23" s="23" t="str">
+      <c r="H23" s="26" t="str">
         <f>IF(_speed_day_hour!F19="","",_speed_day_hour!F19)</f>
         <v/>
       </c>
-      <c r="I23" s="23" t="str">
+      <c r="I23" s="26" t="str">
         <f>IF(_speed_day_hour!G19="","",_speed_day_hour!G19)</f>
         <v/>
       </c>
-      <c r="J23" s="43" t="str">
+      <c r="J23" s="53" t="str">
         <f>IF(_speed_day_hour!H19="","",_speed_day_hour!H19)</f>
         <v/>
       </c>
-      <c r="K23" s="23" t="str">
+      <c r="K23" s="25" t="str">
         <f>IF(_speed_day_hour!I19="","",_speed_day_hour!I19)</f>
         <v/>
       </c>
-      <c r="L23" s="23" t="str">
+      <c r="L23" s="25" t="str">
         <f>IF(_speed_day_hour!J19="","",_speed_day_hour!J19)</f>
         <v/>
       </c>
-      <c r="M23" s="43" t="str">
+      <c r="M23" s="53" t="str">
         <f>IF(_speed_day_hour!K19="","",_speed_day_hour!K19)</f>
         <v/>
       </c>
-      <c r="N23" s="43" t="str">
+      <c r="N23" s="53" t="str">
         <f>IF(_speed_day_hour!L19="","",_speed_day_hour!L19)</f>
         <v/>
       </c>
-      <c r="O23" s="43" t="str">
+      <c r="O23" s="53" t="str">
         <f>IF(_speed_day_hour!M19="","",_speed_day_hour!M19)</f>
         <v/>
       </c>
-      <c r="P23" s="44" t="str">
+      <c r="P23" s="54" t="str">
         <f>IF(_speed_day_hour!N19="","",_speed_day_hour!N19)</f>
         <v/>
       </c>
-      <c r="Q23" s="44" t="str">
+      <c r="Q23" s="66" t="str">
         <f>IF(_speed_day_hour!O19="","",_speed_day_hour!O19)</f>
         <v/>
       </c>
-      <c r="R23" s="53" t="str">
+      <c r="R23" s="63" t="str">
         <f>IF(_speed_day_hour!P19="","",_speed_day_hour!P19)</f>
         <v/>
       </c>
-      <c r="S23" s="56" t="str">
+      <c r="S23" s="67" t="str">
         <f>IF(_speed_day_hour!Q19="","",_speed_day_hour!Q19)</f>
         <v/>
       </c>
     </row>
     <row r="24" ht="21.45" customHeight="1" spans="2:19">
-      <c r="B24" s="21">
+      <c r="B24" s="22">
         <v>0.75</v>
       </c>
-      <c r="C24" s="23" t="str">
+      <c r="C24" s="25" t="str">
         <f>IF(_speed_day_hour!A20="","",_speed_day_hour!A20)</f>
         <v/>
       </c>
-      <c r="D24" s="23" t="str">
+      <c r="D24" s="25" t="str">
         <f>IF(_speed_day_hour!B20="","",_speed_day_hour!B20)</f>
         <v/>
       </c>
-      <c r="E24" s="23" t="str">
+      <c r="E24" s="25" t="str">
         <f>IF(_speed_day_hour!C20="","",_speed_day_hour!C20)</f>
         <v/>
       </c>
-      <c r="F24" s="23" t="str">
+      <c r="F24" s="25" t="str">
         <f>IF(_speed_day_hour!D20="","",_speed_day_hour!D20)</f>
         <v/>
       </c>
-      <c r="G24" s="23" t="str">
+      <c r="G24" s="25" t="str">
         <f>IF(_speed_day_hour!E20="","",_speed_day_hour!E20)</f>
         <v/>
       </c>
-      <c r="H24" s="23" t="str">
+      <c r="H24" s="26" t="str">
         <f>IF(_speed_day_hour!F20="","",_speed_day_hour!F20)</f>
         <v/>
       </c>
-      <c r="I24" s="23" t="str">
+      <c r="I24" s="26" t="str">
         <f>IF(_speed_day_hour!G20="","",_speed_day_hour!G20)</f>
         <v/>
       </c>
-      <c r="J24" s="43" t="str">
+      <c r="J24" s="53" t="str">
         <f>IF(_speed_day_hour!H20="","",_speed_day_hour!H20)</f>
         <v/>
       </c>
-      <c r="K24" s="23" t="str">
+      <c r="K24" s="25" t="str">
         <f>IF(_speed_day_hour!I20="","",_speed_day_hour!I20)</f>
         <v/>
       </c>
-      <c r="L24" s="23" t="str">
+      <c r="L24" s="25" t="str">
         <f>IF(_speed_day_hour!J20="","",_speed_day_hour!J20)</f>
         <v/>
       </c>
-      <c r="M24" s="43" t="str">
+      <c r="M24" s="53" t="str">
         <f>IF(_speed_day_hour!K20="","",_speed_day_hour!K20)</f>
         <v/>
       </c>
-      <c r="N24" s="43" t="str">
+      <c r="N24" s="53" t="str">
         <f>IF(_speed_day_hour!L20="","",_speed_day_hour!L20)</f>
         <v/>
       </c>
-      <c r="O24" s="43" t="str">
+      <c r="O24" s="53" t="str">
         <f>IF(_speed_day_hour!M20="","",_speed_day_hour!M20)</f>
         <v/>
       </c>
-      <c r="P24" s="44" t="str">
+      <c r="P24" s="54" t="str">
         <f>IF(_speed_day_hour!N20="","",_speed_day_hour!N20)</f>
         <v/>
       </c>
-      <c r="Q24" s="44" t="str">
+      <c r="Q24" s="66" t="str">
         <f>IF(_speed_day_hour!O20="","",_speed_day_hour!O20)</f>
         <v/>
       </c>
-      <c r="R24" s="53" t="str">
+      <c r="R24" s="63" t="str">
         <f>IF(_speed_day_hour!P20="","",_speed_day_hour!P20)</f>
         <v/>
       </c>
-      <c r="S24" s="56" t="str">
+      <c r="S24" s="67" t="str">
         <f>IF(_speed_day_hour!Q20="","",_speed_day_hour!Q20)</f>
         <v/>
       </c>
     </row>
     <row r="25" ht="21.45" customHeight="1" spans="2:19">
-      <c r="B25" s="21">
+      <c r="B25" s="22">
         <v>0.791666666666667</v>
       </c>
-      <c r="C25" s="23" t="str">
+      <c r="C25" s="25" t="str">
         <f>IF(_speed_day_hour!A21="","",_speed_day_hour!A21)</f>
         <v/>
       </c>
-      <c r="D25" s="23" t="str">
+      <c r="D25" s="25" t="str">
         <f>IF(_speed_day_hour!B21="","",_speed_day_hour!B21)</f>
         <v/>
       </c>
-      <c r="E25" s="23" t="str">
+      <c r="E25" s="25" t="str">
         <f>IF(_speed_day_hour!C21="","",_speed_day_hour!C21)</f>
         <v/>
       </c>
-      <c r="F25" s="23" t="str">
+      <c r="F25" s="25" t="str">
         <f>IF(_speed_day_hour!D21="","",_speed_day_hour!D21)</f>
         <v/>
       </c>
-      <c r="G25" s="23" t="str">
+      <c r="G25" s="25" t="str">
         <f>IF(_speed_day_hour!E21="","",_speed_day_hour!E21)</f>
         <v/>
       </c>
-      <c r="H25" s="23" t="str">
+      <c r="H25" s="26" t="str">
         <f>IF(_speed_day_hour!F21="","",_speed_day_hour!F21)</f>
         <v/>
       </c>
-      <c r="I25" s="23" t="str">
+      <c r="I25" s="26" t="str">
         <f>IF(_speed_day_hour!G21="","",_speed_day_hour!G21)</f>
         <v/>
       </c>
-      <c r="J25" s="43" t="str">
+      <c r="J25" s="53" t="str">
         <f>IF(_speed_day_hour!H21="","",_speed_day_hour!H21)</f>
         <v/>
       </c>
-      <c r="K25" s="23" t="str">
+      <c r="K25" s="25" t="str">
         <f>IF(_speed_day_hour!I21="","",_speed_day_hour!I21)</f>
         <v/>
       </c>
-      <c r="L25" s="23" t="str">
+      <c r="L25" s="25" t="str">
         <f>IF(_speed_day_hour!J21="","",_speed_day_hour!J21)</f>
         <v/>
       </c>
-      <c r="M25" s="43" t="str">
+      <c r="M25" s="53" t="str">
         <f>IF(_speed_day_hour!K21="","",_speed_day_hour!K21)</f>
         <v/>
       </c>
-      <c r="N25" s="43" t="str">
+      <c r="N25" s="53" t="str">
         <f>IF(_speed_day_hour!L21="","",_speed_day_hour!L21)</f>
         <v/>
       </c>
-      <c r="O25" s="43" t="str">
+      <c r="O25" s="53" t="str">
         <f>IF(_speed_day_hour!M21="","",_speed_day_hour!M21)</f>
         <v/>
       </c>
-      <c r="P25" s="44" t="str">
+      <c r="P25" s="54" t="str">
         <f>IF(_speed_day_hour!N21="","",_speed_day_hour!N21)</f>
         <v/>
       </c>
-      <c r="Q25" s="44" t="str">
+      <c r="Q25" s="66" t="str">
         <f>IF(_speed_day_hour!O21="","",_speed_day_hour!O21)</f>
         <v/>
       </c>
-      <c r="R25" s="53" t="str">
+      <c r="R25" s="63" t="str">
         <f>IF(_speed_day_hour!P21="","",_speed_day_hour!P21)</f>
         <v/>
       </c>
-      <c r="S25" s="56" t="str">
+      <c r="S25" s="67" t="str">
         <f>IF(_speed_day_hour!Q21="","",_speed_day_hour!Q21)</f>
         <v/>
       </c>
     </row>
     <row r="26" ht="21.45" customHeight="1" spans="2:19">
-      <c r="B26" s="21">
+      <c r="B26" s="22">
         <v>0.833333333333333</v>
       </c>
-      <c r="C26" s="23" t="str">
+      <c r="C26" s="25" t="str">
         <f>IF(_speed_day_hour!A22="","",_speed_day_hour!A22)</f>
         <v/>
       </c>
-      <c r="D26" s="23" t="str">
+      <c r="D26" s="25" t="str">
         <f>IF(_speed_day_hour!B22="","",_speed_day_hour!B22)</f>
         <v/>
       </c>
-      <c r="E26" s="23" t="str">
+      <c r="E26" s="25" t="str">
         <f>IF(_speed_day_hour!C22="","",_speed_day_hour!C22)</f>
         <v/>
       </c>
-      <c r="F26" s="23" t="str">
+      <c r="F26" s="25" t="str">
         <f>IF(_speed_day_hour!D22="","",_speed_day_hour!D22)</f>
         <v/>
       </c>
-      <c r="G26" s="23" t="str">
+      <c r="G26" s="25" t="str">
         <f>IF(_speed_day_hour!E22="","",_speed_day_hour!E22)</f>
         <v/>
       </c>
-      <c r="H26" s="23" t="str">
+      <c r="H26" s="26" t="str">
         <f>IF(_speed_day_hour!F22="","",_speed_day_hour!F22)</f>
         <v/>
       </c>
-      <c r="I26" s="23" t="str">
+      <c r="I26" s="26" t="str">
         <f>IF(_speed_day_hour!G22="","",_speed_day_hour!G22)</f>
         <v/>
       </c>
-      <c r="J26" s="43" t="str">
+      <c r="J26" s="53" t="str">
         <f>IF(_speed_day_hour!H22="","",_speed_day_hour!H22)</f>
         <v/>
       </c>
-      <c r="K26" s="23" t="str">
+      <c r="K26" s="25" t="str">
         <f>IF(_speed_day_hour!I22="","",_speed_day_hour!I22)</f>
         <v/>
       </c>
-      <c r="L26" s="23" t="str">
+      <c r="L26" s="25" t="str">
         <f>IF(_speed_day_hour!J22="","",_speed_day_hour!J22)</f>
         <v/>
       </c>
-      <c r="M26" s="43" t="str">
+      <c r="M26" s="53" t="str">
         <f>IF(_speed_day_hour!K22="","",_speed_day_hour!K22)</f>
         <v/>
       </c>
-      <c r="N26" s="43" t="str">
+      <c r="N26" s="53" t="str">
         <f>IF(_speed_day_hour!L22="","",_speed_day_hour!L22)</f>
         <v/>
       </c>
-      <c r="O26" s="43" t="str">
+      <c r="O26" s="53" t="str">
         <f>IF(_speed_day_hour!M22="","",_speed_day_hour!M22)</f>
         <v/>
       </c>
-      <c r="P26" s="44" t="str">
+      <c r="P26" s="54" t="str">
         <f>IF(_speed_day_hour!N22="","",_speed_day_hour!N22)</f>
         <v/>
       </c>
-      <c r="Q26" s="44" t="str">
+      <c r="Q26" s="66" t="str">
         <f>IF(_speed_day_hour!O22="","",_speed_day_hour!O22)</f>
         <v/>
       </c>
-      <c r="R26" s="53" t="str">
+      <c r="R26" s="63" t="str">
         <f>IF(_speed_day_hour!P22="","",_speed_day_hour!P22)</f>
         <v/>
       </c>
-      <c r="S26" s="56" t="str">
+      <c r="S26" s="67" t="str">
         <f>IF(_speed_day_hour!Q22="","",_speed_day_hour!Q22)</f>
         <v/>
       </c>
     </row>
     <row r="27" ht="21.45" customHeight="1" spans="2:19">
-      <c r="B27" s="21">
+      <c r="B27" s="22">
         <v>0.875</v>
       </c>
-      <c r="C27" s="23" t="str">
+      <c r="C27" s="25" t="str">
         <f>IF(_speed_day_hour!A23="","",_speed_day_hour!A23)</f>
         <v/>
       </c>
-      <c r="D27" s="23" t="str">
+      <c r="D27" s="25" t="str">
         <f>IF(_speed_day_hour!B23="","",_speed_day_hour!B23)</f>
         <v/>
       </c>
-      <c r="E27" s="23" t="str">
+      <c r="E27" s="25" t="str">
         <f>IF(_speed_day_hour!C23="","",_speed_day_hour!C23)</f>
         <v/>
       </c>
-      <c r="F27" s="23" t="str">
+      <c r="F27" s="25" t="str">
         <f>IF(_speed_day_hour!D23="","",_speed_day_hour!D23)</f>
         <v/>
       </c>
-      <c r="G27" s="23" t="str">
+      <c r="G27" s="25" t="str">
         <f>IF(_speed_day_hour!E23="","",_speed_day_hour!E23)</f>
         <v/>
       </c>
-      <c r="H27" s="23" t="str">
+      <c r="H27" s="26" t="str">
         <f>IF(_speed_day_hour!F23="","",_speed_day_hour!F23)</f>
         <v/>
       </c>
-      <c r="I27" s="23" t="str">
+      <c r="I27" s="26" t="str">
         <f>IF(_speed_day_hour!G23="","",_speed_day_hour!G23)</f>
         <v/>
       </c>
-      <c r="J27" s="43" t="str">
+      <c r="J27" s="53" t="str">
         <f>IF(_speed_day_hour!H23="","",_speed_day_hour!H23)</f>
         <v/>
       </c>
-      <c r="K27" s="23" t="str">
+      <c r="K27" s="25" t="str">
         <f>IF(_speed_day_hour!I23="","",_speed_day_hour!I23)</f>
         <v/>
       </c>
-      <c r="L27" s="23" t="str">
+      <c r="L27" s="25" t="str">
         <f>IF(_speed_day_hour!J23="","",_speed_day_hour!J23)</f>
         <v/>
       </c>
-      <c r="M27" s="43" t="str">
+      <c r="M27" s="53" t="str">
         <f>IF(_speed_day_hour!K23="","",_speed_day_hour!K23)</f>
         <v/>
       </c>
-      <c r="N27" s="43" t="str">
+      <c r="N27" s="53" t="str">
         <f>IF(_speed_day_hour!L23="","",_speed_day_hour!L23)</f>
         <v/>
       </c>
-      <c r="O27" s="43" t="str">
+      <c r="O27" s="53" t="str">
         <f>IF(_speed_day_hour!M23="","",_speed_day_hour!M23)</f>
         <v/>
       </c>
-      <c r="P27" s="44" t="str">
+      <c r="P27" s="54" t="str">
         <f>IF(_speed_day_hour!N23="","",_speed_day_hour!N23)</f>
         <v/>
       </c>
-      <c r="Q27" s="44" t="str">
+      <c r="Q27" s="66" t="str">
         <f>IF(_speed_day_hour!O23="","",_speed_day_hour!O23)</f>
         <v/>
       </c>
-      <c r="R27" s="53" t="str">
+      <c r="R27" s="63" t="str">
         <f>IF(_speed_day_hour!P23="","",_speed_day_hour!P23)</f>
         <v/>
       </c>
-      <c r="S27" s="56" t="str">
+      <c r="S27" s="67" t="str">
         <f>IF(_speed_day_hour!Q23="","",_speed_day_hour!Q23)</f>
         <v/>
       </c>
     </row>
     <row r="28" ht="21.45" customHeight="1" spans="2:19">
-      <c r="B28" s="21">
+      <c r="B28" s="22">
         <v>0.916666666666667</v>
       </c>
-      <c r="C28" s="23" t="str">
+      <c r="C28" s="25" t="str">
         <f>IF(_speed_day_hour!A24="","",_speed_day_hour!A24)</f>
         <v/>
       </c>
-      <c r="D28" s="23" t="str">
+      <c r="D28" s="25" t="str">
         <f>IF(_speed_day_hour!B24="","",_speed_day_hour!B24)</f>
         <v/>
       </c>
-      <c r="E28" s="23" t="str">
+      <c r="E28" s="25" t="str">
         <f>IF(_speed_day_hour!C24="","",_speed_day_hour!C24)</f>
         <v/>
       </c>
-      <c r="F28" s="23" t="str">
+      <c r="F28" s="25" t="str">
         <f>IF(_speed_day_hour!D24="","",_speed_day_hour!D24)</f>
         <v/>
       </c>
-      <c r="G28" s="23" t="str">
+      <c r="G28" s="25" t="str">
         <f>IF(_speed_day_hour!E24="","",_speed_day_hour!E24)</f>
         <v/>
       </c>
-      <c r="H28" s="23" t="str">
+      <c r="H28" s="26" t="str">
         <f>IF(_speed_day_hour!F24="","",_speed_day_hour!F24)</f>
         <v/>
       </c>
-      <c r="I28" s="23" t="str">
+      <c r="I28" s="26" t="str">
         <f>IF(_speed_day_hour!G24="","",_speed_day_hour!G24)</f>
         <v/>
       </c>
-      <c r="J28" s="43" t="str">
+      <c r="J28" s="53" t="str">
         <f>IF(_speed_day_hour!H24="","",_speed_day_hour!H24)</f>
         <v/>
       </c>
-      <c r="K28" s="23" t="str">
+      <c r="K28" s="25" t="str">
         <f>IF(_speed_day_hour!I24="","",_speed_day_hour!I24)</f>
         <v/>
       </c>
-      <c r="L28" s="23" t="str">
+      <c r="L28" s="25" t="str">
         <f>IF(_speed_day_hour!J24="","",_speed_day_hour!J24)</f>
         <v/>
       </c>
-      <c r="M28" s="43" t="str">
+      <c r="M28" s="53" t="str">
         <f>IF(_speed_day_hour!K24="","",_speed_day_hour!K24)</f>
         <v/>
       </c>
-      <c r="N28" s="43" t="str">
+      <c r="N28" s="53" t="str">
         <f>IF(_speed_day_hour!L24="","",_speed_day_hour!L24)</f>
         <v/>
       </c>
-      <c r="O28" s="43" t="str">
+      <c r="O28" s="53" t="str">
         <f>IF(_speed_day_hour!M24="","",_speed_day_hour!M24)</f>
         <v/>
       </c>
-      <c r="P28" s="44" t="str">
+      <c r="P28" s="54" t="str">
         <f>IF(_speed_day_hour!N24="","",_speed_day_hour!N24)</f>
         <v/>
       </c>
-      <c r="Q28" s="44" t="str">
+      <c r="Q28" s="66" t="str">
         <f>IF(_speed_day_hour!O24="","",_speed_day_hour!O24)</f>
         <v/>
       </c>
-      <c r="R28" s="53" t="str">
+      <c r="R28" s="63" t="str">
         <f>IF(_speed_day_hour!P24="","",_speed_day_hour!P24)</f>
         <v/>
       </c>
-      <c r="S28" s="56" t="str">
+      <c r="S28" s="67" t="str">
         <f>IF(_speed_day_hour!Q24="","",_speed_day_hour!Q24)</f>
         <v/>
       </c>
     </row>
     <row r="29" ht="21.45" customHeight="1" spans="2:19">
-      <c r="B29" s="24">
+      <c r="B29" s="27">
         <v>0.958333333333333</v>
       </c>
-      <c r="C29" s="25" t="str">
+      <c r="C29" s="28" t="str">
         <f>IF(_speed_day_hour!A25="","",_speed_day_hour!A25)</f>
         <v/>
       </c>
-      <c r="D29" s="25" t="str">
+      <c r="D29" s="28" t="str">
         <f>IF(_speed_day_hour!B25="","",_speed_day_hour!B25)</f>
         <v/>
       </c>
-      <c r="E29" s="25" t="str">
+      <c r="E29" s="28" t="str">
         <f>IF(_speed_day_hour!C25="","",_speed_day_hour!C25)</f>
         <v/>
       </c>
-      <c r="F29" s="25" t="str">
+      <c r="F29" s="28" t="str">
         <f>IF(_speed_day_hour!D25="","",_speed_day_hour!D25)</f>
         <v/>
       </c>
-      <c r="G29" s="25" t="str">
+      <c r="G29" s="28" t="str">
         <f>IF(_speed_day_hour!E25="","",_speed_day_hour!E25)</f>
         <v/>
       </c>
-      <c r="H29" s="25" t="str">
+      <c r="H29" s="29" t="str">
         <f>IF(_speed_day_hour!F25="","",_speed_day_hour!F25)</f>
         <v/>
       </c>
-      <c r="I29" s="25" t="str">
+      <c r="I29" s="29" t="str">
         <f>IF(_speed_day_hour!G25="","",_speed_day_hour!G25)</f>
         <v/>
       </c>
-      <c r="J29" s="45" t="str">
+      <c r="J29" s="55" t="str">
         <f>IF(_speed_day_hour!H25="","",_speed_day_hour!H25)</f>
         <v/>
       </c>
-      <c r="K29" s="25" t="str">
+      <c r="K29" s="28" t="str">
         <f>IF(_speed_day_hour!I25="","",_speed_day_hour!I25)</f>
         <v/>
       </c>
-      <c r="L29" s="25" t="str">
+      <c r="L29" s="28" t="str">
         <f>IF(_speed_day_hour!J25="","",_speed_day_hour!J25)</f>
         <v/>
       </c>
-      <c r="M29" s="45" t="str">
+      <c r="M29" s="55" t="str">
         <f>IF(_speed_day_hour!K25="","",_speed_day_hour!K25)</f>
         <v/>
       </c>
-      <c r="N29" s="45" t="str">
+      <c r="N29" s="55" t="str">
         <f>IF(_speed_day_hour!L25="","",_speed_day_hour!L25)</f>
         <v/>
       </c>
-      <c r="O29" s="45" t="str">
+      <c r="O29" s="55" t="str">
         <f>IF(_speed_day_hour!M25="","",_speed_day_hour!M25)</f>
         <v/>
       </c>
-      <c r="P29" s="46" t="str">
+      <c r="P29" s="56" t="str">
         <f>IF(_speed_day_hour!N25="","",_speed_day_hour!N25)</f>
         <v/>
       </c>
-      <c r="Q29" s="46" t="str">
+      <c r="Q29" s="68" t="str">
         <f>IF(_speed_day_hour!O25="","",_speed_day_hour!O25)</f>
         <v/>
       </c>
-      <c r="R29" s="57" t="str">
+      <c r="R29" s="69" t="str">
         <f>IF(_speed_day_hour!P25="","",_speed_day_hour!P25)</f>
         <v/>
       </c>
-      <c r="S29" s="58" t="str">
+      <c r="S29" s="70" t="str">
         <f>IF(_speed_day_hour!Q25="","",_speed_day_hour!Q25)</f>
         <v/>
       </c>
     </row>
     <row r="30" ht="21.45" customHeight="1" spans="2:19">
-      <c r="B30" s="26" t="s">
+      <c r="B30" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="27" t="str">
+      <c r="C30" s="31" t="str">
         <f t="shared" ref="C30:S30" si="0">IFERROR(AVERAGE(C6:C13),"")</f>
         <v/>
       </c>
-      <c r="D30" s="28" t="str">
+      <c r="D30" s="32" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E30" s="28" t="str">
+      <c r="E30" s="32" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F30" s="28" t="str">
+      <c r="F30" s="32" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G30" s="28" t="str">
+      <c r="G30" s="32" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H30" s="28" t="str">
+      <c r="H30" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I30" s="28" t="str">
+      <c r="I30" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J30" s="28" t="str">
+      <c r="J30" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K30" s="28" t="str">
+      <c r="K30" s="32" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L30" s="47" t="str">
+      <c r="L30" s="57" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M30" s="47" t="str">
+      <c r="M30" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="N30" s="47" t="str">
+      <c r="N30" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O30" s="47" t="str">
+      <c r="O30" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P30" s="47" t="str">
+      <c r="P30" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q30" s="47" t="str">
+      <c r="Q30" s="57" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R30" s="47" t="str">
+      <c r="R30" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="S30" s="59" t="str">
+      <c r="S30" s="71" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="31" ht="21.45" customHeight="1" spans="2:19">
-      <c r="B31" s="29" t="s">
+      <c r="B31" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="30" t="str">
+      <c r="C31" s="35" t="str">
         <f t="shared" ref="C31:S31" si="1">IFERROR(AVERAGE(C14:C21),"")</f>
         <v/>
       </c>
-      <c r="D31" s="31" t="str">
+      <c r="D31" s="36" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="E31" s="31" t="str">
+      <c r="E31" s="36" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F31" s="31" t="str">
+      <c r="F31" s="36" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G31" s="31" t="str">
+      <c r="G31" s="36" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H31" s="31" t="str">
+      <c r="H31" s="37" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I31" s="31" t="str">
+      <c r="I31" s="37" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J31" s="31" t="str">
+      <c r="J31" s="37" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K31" s="31" t="str">
+      <c r="K31" s="36" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L31" s="43" t="str">
+      <c r="L31" s="25" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M31" s="43" t="str">
+      <c r="M31" s="53" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N31" s="43" t="str">
+      <c r="N31" s="53" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O31" s="43" t="str">
+      <c r="O31" s="53" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="P31" s="43" t="str">
+      <c r="P31" s="53" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q31" s="43" t="str">
+      <c r="Q31" s="25" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="R31" s="43" t="str">
+      <c r="R31" s="53" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S31" s="60" t="str">
+      <c r="S31" s="72" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="32" ht="21.45" customHeight="1" spans="2:19">
-      <c r="B32" s="29" t="s">
+      <c r="B32" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="30" t="str">
+      <c r="C32" s="35" t="str">
         <f t="shared" ref="C32:S32" si="2">IFERROR(AVERAGE(C22:C29),"")</f>
         <v/>
       </c>
-      <c r="D32" s="31" t="str">
+      <c r="D32" s="36" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="E32" s="31" t="str">
+      <c r="E32" s="36" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F32" s="31" t="str">
+      <c r="F32" s="36" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G32" s="31" t="str">
+      <c r="G32" s="36" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H32" s="31" t="str">
+      <c r="H32" s="37" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I32" s="31" t="str">
+      <c r="I32" s="37" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J32" s="31" t="str">
+      <c r="J32" s="37" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K32" s="31" t="str">
+      <c r="K32" s="36" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L32" s="43" t="str">
+      <c r="L32" s="25" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M32" s="43" t="str">
+      <c r="M32" s="53" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N32" s="43" t="str">
+      <c r="N32" s="53" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="O32" s="43" t="str">
+      <c r="O32" s="53" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P32" s="43" t="str">
+      <c r="P32" s="53" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q32" s="43" t="str">
+      <c r="Q32" s="25" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R32" s="43" t="str">
+      <c r="R32" s="53" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="S32" s="60" t="str">
+      <c r="S32" s="72" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="33" ht="21.45" customHeight="1" spans="2:19">
-      <c r="B33" s="32" t="s">
+      <c r="B33" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="C33" s="30" t="str">
+      <c r="C33" s="35" t="str">
         <f t="shared" ref="C33:S33" si="3">IFERROR(AVERAGE(C6:C29),"")</f>
         <v/>
       </c>
-      <c r="D33" s="31" t="str">
+      <c r="D33" s="36" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E33" s="31" t="str">
+      <c r="E33" s="36" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F33" s="31" t="str">
+      <c r="F33" s="36" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G33" s="31" t="str">
+      <c r="G33" s="36" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H33" s="31" t="str">
+      <c r="H33" s="37" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I33" s="31" t="str">
+      <c r="I33" s="37" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J33" s="31" t="str">
+      <c r="J33" s="37" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K33" s="31" t="str">
+      <c r="K33" s="36" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L33" s="31" t="str">
+      <c r="L33" s="36" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M33" s="31" t="str">
+      <c r="M33" s="37" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N33" s="31" t="str">
+      <c r="N33" s="37" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="O33" s="31" t="str">
+      <c r="O33" s="37" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P33" s="31" t="str">
+      <c r="P33" s="37" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="Q33" s="31" t="str">
+      <c r="Q33" s="36" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="R33" s="31" t="str">
+      <c r="R33" s="37" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="S33" s="61" t="str">
+      <c r="S33" s="73" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="34" ht="58.05" customHeight="1" spans="2:19">
-      <c r="B34" s="33" t="s">
+      <c r="B34" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="33" t="s">
+      <c r="C34" s="40"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="41"/>
+      <c r="H34" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="I34" s="34"/>
-      <c r="J34" s="34"/>
-      <c r="K34" s="34"/>
-      <c r="L34" s="34"/>
-      <c r="M34" s="35"/>
-      <c r="N34" s="33" t="s">
+      <c r="I34" s="40"/>
+      <c r="J34" s="40"/>
+      <c r="K34" s="40"/>
+      <c r="L34" s="40"/>
+      <c r="M34" s="41"/>
+      <c r="N34" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="O34" s="34"/>
-      <c r="P34" s="34"/>
-      <c r="Q34" s="34"/>
-      <c r="R34" s="34"/>
-      <c r="S34" s="35"/>
+      <c r="O34" s="40"/>
+      <c r="P34" s="40"/>
+      <c r="Q34" s="40"/>
+      <c r="R34" s="40"/>
+      <c r="S34" s="41"/>
     </row>
     <row r="35" ht="18.75" spans="2:19">
-      <c r="B35" s="36" t="s">
+      <c r="B35" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="C35" s="37"/>
-      <c r="D35" s="37"/>
-      <c r="E35" s="37"/>
-      <c r="F35" s="37"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="I35" s="37"/>
-      <c r="J35" s="37"/>
-      <c r="K35" s="37"/>
-      <c r="L35" s="37"/>
-      <c r="M35" s="38"/>
-      <c r="N35" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="O35" s="37"/>
-      <c r="P35" s="37"/>
-      <c r="Q35" s="37"/>
-      <c r="R35" s="37"/>
-      <c r="S35" s="38"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="I35" s="43"/>
+      <c r="J35" s="43"/>
+      <c r="K35" s="43"/>
+      <c r="L35" s="43"/>
+      <c r="M35" s="44"/>
+      <c r="N35" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="O35" s="43"/>
+      <c r="P35" s="43"/>
+      <c r="Q35" s="43"/>
+      <c r="R35" s="43"/>
+      <c r="S35" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="20">
     <mergeCell ref="B1:S1"/>
     <mergeCell ref="C2:E2"/>
-    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="M2:S2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="K3:L3"/>
@@ -4906,7 +5017,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B1">
         <v>45</v>
